--- a/data/tabla 05-08.xlsx
+++ b/data/tabla 05-08.xlsx
@@ -1290,6 +1290,438 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -1301,450 +1733,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -1800,6 +1788,438 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -1811,450 +2231,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -2313,7 +2289,12 @@
   </cellStyleXfs>
   <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2329,7 +2310,9 @@
     <xf numFmtId="164" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2345,7 +2328,9 @@
     <xf numFmtId="164" fontId="13" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="14" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2361,7 +2346,9 @@
     <xf numFmtId="164" fontId="19" fillId="20" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="21" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="20" fillId="21" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="21" fillId="22" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2377,7 +2364,9 @@
     <xf numFmtId="164" fontId="25" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="27" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="26" fillId="27" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="27" fillId="28" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2393,7 +2382,9 @@
     <xf numFmtId="164" fontId="31" fillId="32" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="32" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="33" fillId="34" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2409,7 +2400,9 @@
     <xf numFmtId="164" fontId="37" fillId="38" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="39" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="38" fillId="39" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="39" fillId="40" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2425,39 +2418,15 @@
     <xf numFmtId="164" fontId="43" fillId="44" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="45" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="44" fillId="45" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="45" fillId="46" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="47" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="48" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="49" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="50" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="51" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="51" fillId="52" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="52" fillId="53" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="54" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="54" fillId="55" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="55" fillId="56" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="56" fillId="57" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="56" fillId="57" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="57" fillId="58" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2470,10 +2439,15 @@
     <xf numFmtId="164" fontId="60" fillId="61" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="61" fillId="62" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="68" fillId="69" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="61" fillId="62" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="67" fillId="68" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="68" fillId="69" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="69" fillId="70" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2489,7 +2463,9 @@
     <xf numFmtId="164" fontId="73" fillId="74" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="74" fillId="75" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="74" fillId="75" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="75" fillId="76" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2505,7 +2481,9 @@
     <xf numFmtId="164" fontId="79" fillId="80" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="80" fillId="81" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="80" fillId="81" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="81" fillId="82" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2521,7 +2499,9 @@
     <xf numFmtId="164" fontId="85" fillId="86" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="86" fillId="87" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="86" fillId="87" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="87" fillId="88" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2537,7 +2517,9 @@
     <xf numFmtId="164" fontId="91" fillId="92" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="92" fillId="93" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="92" fillId="93" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="93" fillId="94" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2553,7 +2535,9 @@
     <xf numFmtId="164" fontId="97" fillId="98" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="98" fillId="99" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="98" fillId="99" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="99" fillId="100" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2569,7 +2553,9 @@
     <xf numFmtId="164" fontId="103" fillId="104" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="104" fillId="105" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="104" fillId="105" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="105" fillId="106" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2585,39 +2571,15 @@
     <xf numFmtId="164" fontId="109" fillId="110" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="110" fillId="111" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="110" fillId="111" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="111" fillId="112" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="112" fillId="113" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="113" fillId="114" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="114" fillId="115" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="115" fillId="116" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="116" fillId="117" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="117" fillId="118" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="118" fillId="119" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="119" fillId="120" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="120" fillId="121" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="121" fillId="122" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="122" fillId="123" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="122" fillId="123" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="123" fillId="124" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2630,25 +2592,39 @@
     <xf numFmtId="164" fontId="126" fillId="127" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="127" fillId="128" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="63" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="64" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="65" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="66" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="67" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="127" fillId="128" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="47" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="48" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="49" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="50" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="51" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="52" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="53" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="54" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="55" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="56" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="128" fillId="129" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2664,7 +2640,51 @@
     <xf numFmtId="0" fontId="132" fillId="133" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="68" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="112" fillId="113" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="114" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="115" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="116" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="117" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="118" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="119" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="120" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="121" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="122" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="63" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="64" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="65" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="66" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="67" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2982,7 +3002,7 @@
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2990,234 +3010,243 @@
     <col min="1" max="1" width="57.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="126" t="s">
+    <row r="2" spans="1:6" ht="30" customHeight="1">
+      <c r="A2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="124" t="s">
+      <c r="E2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="125" t="s">
+      <c r="F2" s="132" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>50.671390533447266</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>15.602652549743652</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>3358.821533203125</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>7.868556022644043</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>16.727273941040039</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>42.287628173828125</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>16.87651252746582</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>1834.572265625</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>15.728096961975098</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>42.007164001464844</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>41.588363647460938</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>14.560422897338867</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="13">
         <v>1045.52001953125</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="14">
         <v>20.409336090087891</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="15">
         <v>40.474369049072266</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <v>39.689018249511719</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="17">
         <v>13.285615921020508</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="18">
         <v>700.2841796875</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="19">
         <v>33.164409637451172</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="20">
         <v>26.441169738769531</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="21">
         <v>38.028011322021484</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="22">
         <v>11.729229927062988</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="23">
         <v>497.66796875</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="24">
         <v>36.223323822021484</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="25">
         <v>30.325122833251953</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="26">
         <v>50.423713684082031</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="27">
         <v>6.8571429252624512</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="28">
         <v>415.32489013671875</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="29">
         <v>11.56462574005127</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="30">
         <v>10.884353637695313</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="31">
         <v>39.761787414550781</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="32">
         <v>11.759654998779297</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="33">
         <v>631.0689697265625</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="34">
         <v>0.7403721809387207</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="35">
         <v>29.877349853515625</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="36">
         <v>42.325702667236328</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="37">
         <v>11.413765907287598</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="38">
         <v>649.37847900390625</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="39">
         <v>1.2262113094329834</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="40">
         <v>28.595378875732422</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="41">
         <v>42.109645843505859</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="42">
         <v>10.418526649475098</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="43">
         <v>394.37725830078125</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="44">
         <v>18.652523040771484</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="45">
         <v>25.106864929199219</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="56">
+      <c r="B12" s="46">
         <v>41.490093231201172</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="47">
         <v>12.597118377685547</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="48">
         <v>863.95391845703125</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="49">
         <v>9.4102191925048828</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="50">
         <v>31.159860610961914</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2"/>
+  <mergeCells count="15">
+    <mergeCell ref="A8"/>
+    <mergeCell ref="A9"/>
+    <mergeCell ref="A10"/>
+    <mergeCell ref="A11"/>
+    <mergeCell ref="A12"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="A4"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="A7"/>
     <mergeCell ref="B2"/>
     <mergeCell ref="C2"/>
     <mergeCell ref="D2"/>
@@ -3237,228 +3266,237 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="130" t="s">
+      <c r="E2" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="117" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="52">
         <v>4.00628662109375</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="53">
         <v>4.2139339447021484</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="54">
         <v>16.667888641357422</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="55">
         <v>48.404926300048828</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="56">
         <v>39.56439208984375</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68">
+      <c r="B4" s="57">
         <v>2.9570021629333496</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="58">
         <v>0.50840252637863159</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="59">
         <v>6.2782144546508789</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="60">
         <v>22.512548446655273</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="61">
         <v>9.8859939575195313</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B5" s="62">
         <v>2.0836637020111084</v>
       </c>
-      <c r="C5" s="75">
+      <c r="C5" s="63">
         <v>0.7869187593460083</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="64">
         <v>5.7679433822631836</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="65">
         <v>20.252651214599609</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="66">
         <v>10.825779914855957</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="67">
         <v>3.1130874156951904</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="68">
         <v>1.6845886707305908</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="69">
         <v>4.6283450126647949</v>
       </c>
-      <c r="E6" s="83">
+      <c r="E6" s="70">
         <v>16.267206192016602</v>
       </c>
-      <c r="F6" s="84">
+      <c r="F6" s="71">
         <v>18.546321868896484</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="72">
         <v>3.8789830207824707</v>
       </c>
-      <c r="C7" s="87">
+      <c r="C7" s="73">
         <v>2.9384541511535645</v>
       </c>
-      <c r="D7" s="88">
+      <c r="D7" s="74">
         <v>9.4125766754150391</v>
       </c>
-      <c r="E7" s="89">
+      <c r="E7" s="75">
         <v>14.19066333770752</v>
       </c>
-      <c r="F7" s="90">
+      <c r="F7" s="76">
         <v>19.317617416381836</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="92">
+      <c r="B8" s="77">
         <v>9.1027050018310547</v>
       </c>
-      <c r="C8" s="93">
+      <c r="C8" s="78">
         <v>24.001806259155273</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="79">
         <v>25.033905029296875</v>
       </c>
-      <c r="E8" s="95">
+      <c r="E8" s="80">
         <v>61.135414123535156</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="81">
         <v>69.4525146484375</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="98">
+      <c r="B9" s="82">
         <v>1.2471936941146851</v>
       </c>
-      <c r="C9" s="99">
+      <c r="C9" s="83">
         <v>0.94200992584228516</v>
       </c>
-      <c r="D9" s="100">
+      <c r="D9" s="84">
         <v>2.7279317378997803</v>
       </c>
-      <c r="E9" s="101">
+      <c r="E9" s="85">
         <v>51.179641723632813</v>
       </c>
-      <c r="F9" s="102">
+      <c r="F9" s="86">
         <v>6.1532669067382813</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="104">
+      <c r="B10" s="87">
         <v>1.3153765201568604</v>
       </c>
-      <c r="C10" s="105">
+      <c r="C10" s="88">
         <v>1.0676586627960205</v>
       </c>
-      <c r="D10" s="106">
+      <c r="D10" s="89">
         <v>4.1922965049743652</v>
       </c>
-      <c r="E10" s="107">
+      <c r="E10" s="90">
         <v>32.405300140380859</v>
       </c>
-      <c r="F10" s="108">
+      <c r="F10" s="91">
         <v>6.6121268272399902</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="110">
+      <c r="B11" s="92">
         <v>1.8831397294998169</v>
       </c>
-      <c r="C11" s="111">
+      <c r="C11" s="93">
         <v>2.2510266304016113</v>
       </c>
-      <c r="D11" s="112">
+      <c r="D11" s="94">
         <v>5.4851207733154297</v>
       </c>
-      <c r="E11" s="113">
+      <c r="E11" s="95">
         <v>13.006202697753906</v>
       </c>
-      <c r="F11" s="114">
+      <c r="F11" s="96">
         <v>12.933537483215332</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="116">
+      <c r="B12" s="97">
         <v>0.84065759181976318</v>
       </c>
-      <c r="C12" s="117">
+      <c r="C12" s="98">
         <v>0.77376294136047363</v>
       </c>
-      <c r="D12" s="118">
+      <c r="D12" s="99">
         <v>3.6188843250274658</v>
       </c>
-      <c r="E12" s="119">
+      <c r="E12" s="100">
         <v>8.2841224670410156</v>
       </c>
-      <c r="F12" s="120">
+      <c r="F12" s="101">
         <v>3.8355860710144043</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2"/>
+  <mergeCells count="15">
+    <mergeCell ref="A8"/>
+    <mergeCell ref="A9"/>
+    <mergeCell ref="A10"/>
+    <mergeCell ref="A11"/>
+    <mergeCell ref="A12"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="A4"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="A7"/>
     <mergeCell ref="B2"/>
     <mergeCell ref="C2"/>
     <mergeCell ref="D2"/>
